--- a/data/input/eurobank/202509.xlsx
+++ b/data/input/eurobank/202509.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cervedgroup-my.sharepoint.com/personal/alexis_milionis_cerved_com/Documents/codebase/Utilities/streamlit/data/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cervedgroup-my.sharepoint.com/personal/alexis_milionis_cerved_com/Documents/codebase/Utilities/streamlit/data/input/eurobank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_F235BD1891344565E00B8F3D5E94DAA62ED55A21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88439D6F-E41D-4035-B37D-8829CE48ED18}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="11_F235BD1891344565E00B8F3D5E94DAA62ED55A21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B7FA506-8F09-4DE2-B345-2ADB3D82106F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1125" yWindow="1125" windowWidth="17280" windowHeight="8925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -3354,10 +3354,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ485"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AQ489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A460" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B481"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A387" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J488" sqref="J488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3379,22 +3381,28 @@
     <col min="17" max="17" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.140625" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="7" bestFit="1" customWidth="1"/>
-    <col min="34" max="36" width="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="8" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="8" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="5" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="11" style="10" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="17.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3528,7 +3536,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>534</v>
       </c>
@@ -3593,7 +3601,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>688358</v>
       </c>
@@ -3658,7 +3666,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>569</v>
       </c>
@@ -3723,7 +3731,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>570</v>
       </c>
@@ -3788,7 +3796,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>571</v>
       </c>
@@ -3853,7 +3861,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>572</v>
       </c>
@@ -3918,7 +3926,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>573</v>
       </c>
@@ -3983,7 +3991,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>574</v>
       </c>
@@ -4048,7 +4056,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>575</v>
       </c>
@@ -4113,7 +4121,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1474609</v>
       </c>
@@ -4178,7 +4186,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>947</v>
       </c>
@@ -4243,7 +4251,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>948</v>
       </c>
@@ -4308,7 +4316,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>949</v>
       </c>
@@ -4373,7 +4381,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>950</v>
       </c>
@@ -4438,7 +4446,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>951</v>
       </c>
@@ -4503,7 +4511,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="17" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>688391</v>
       </c>
@@ -4568,7 +4576,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="18" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>692500</v>
       </c>
@@ -4633,7 +4641,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="19" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>692501</v>
       </c>
@@ -4698,7 +4706,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="20" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>692502</v>
       </c>
@@ -4763,7 +4771,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="21" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>692503</v>
       </c>
@@ -4828,7 +4836,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="22" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>692504</v>
       </c>
@@ -4893,7 +4901,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="23" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>3183</v>
       </c>
@@ -4958,7 +4966,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="24" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>1360852</v>
       </c>
@@ -5023,7 +5031,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="25" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>1360853</v>
       </c>
@@ -5088,7 +5096,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="26" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>688559</v>
       </c>
@@ -5153,7 +5161,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="27" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>6941</v>
       </c>
@@ -5218,7 +5226,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="28" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>6954</v>
       </c>
@@ -5283,7 +5291,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="29" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>6963</v>
       </c>
@@ -5348,7 +5356,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="30" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>6965</v>
       </c>
@@ -5413,7 +5421,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="31" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>6966</v>
       </c>
@@ -5478,7 +5486,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="32" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>6967</v>
       </c>
@@ -5543,7 +5551,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="33" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>6968</v>
       </c>
@@ -5608,7 +5616,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="34" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>6970</v>
       </c>
@@ -5673,7 +5681,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="35" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>6985</v>
       </c>
@@ -5738,7 +5746,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="36" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>6785</v>
       </c>
@@ -5803,7 +5811,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="37" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>7030</v>
       </c>
@@ -5868,7 +5876,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="38" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>7031</v>
       </c>
@@ -5933,7 +5941,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="39" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>7033</v>
       </c>
@@ -5998,7 +6006,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="40" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>7034</v>
       </c>
@@ -6063,7 +6071,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="41" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>7035</v>
       </c>
@@ -6128,7 +6136,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="42" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>7036</v>
       </c>
@@ -6193,7 +6201,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="43" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>7037</v>
       </c>
@@ -6258,7 +6266,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="44" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>7038</v>
       </c>
@@ -6323,7 +6331,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="45" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>688605</v>
       </c>
@@ -6388,7 +6396,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="46" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>699116</v>
       </c>
@@ -6453,7 +6461,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="47" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>699117</v>
       </c>
@@ -6518,7 +6526,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="48" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>699118</v>
       </c>
@@ -6583,7 +6591,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>699119</v>
       </c>
@@ -6648,7 +6656,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>699120</v>
       </c>
@@ -6713,7 +6721,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>7032</v>
       </c>
@@ -6778,7 +6786,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>1896261</v>
       </c>
@@ -6843,7 +6851,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>19618</v>
       </c>
@@ -6908,7 +6916,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>1178061</v>
       </c>
@@ -6973,7 +6981,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>2003996</v>
       </c>
@@ -7038,7 +7046,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>43</v>
       </c>
@@ -7139,7 +7147,7 @@
         <v>45890</v>
       </c>
     </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>43</v>
       </c>
@@ -7240,7 +7248,7 @@
         <v>45890</v>
       </c>
     </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>39</v>
       </c>
@@ -7341,7 +7349,7 @@
         <v>45881</v>
       </c>
     </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>34</v>
       </c>
@@ -7442,7 +7450,7 @@
         <v>45875</v>
       </c>
     </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>34</v>
       </c>
@@ -7543,7 +7551,7 @@
         <v>45875</v>
       </c>
     </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>36</v>
       </c>
@@ -7656,7 +7664,7 @@
         <v>45876</v>
       </c>
     </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>45</v>
       </c>
@@ -7763,7 +7771,7 @@
         <v>45890</v>
       </c>
     </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>49</v>
       </c>
@@ -7864,7 +7872,7 @@
         <v>45896</v>
       </c>
     </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>52</v>
       </c>
@@ -7983,7 +7991,7 @@
         <v>45898</v>
       </c>
     </row>
-    <row r="65" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>52</v>
       </c>
@@ -8084,7 +8092,7 @@
         <v>45898</v>
       </c>
     </row>
-    <row r="66" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>52</v>
       </c>
@@ -8185,7 +8193,7 @@
         <v>45898</v>
       </c>
     </row>
-    <row r="67" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>52</v>
       </c>
@@ -8286,7 +8294,7 @@
         <v>45898</v>
       </c>
     </row>
-    <row r="68" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>52</v>
       </c>
@@ -8387,7 +8395,7 @@
         <v>45898</v>
       </c>
     </row>
-    <row r="69" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>52</v>
       </c>
@@ -8488,7 +8496,7 @@
         <v>45898</v>
       </c>
     </row>
-    <row r="70" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>52</v>
       </c>
@@ -8589,7 +8597,7 @@
         <v>45898</v>
       </c>
     </row>
-    <row r="71" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>54</v>
       </c>
@@ -8690,7 +8698,7 @@
         <v>45901</v>
       </c>
     </row>
-    <row r="72" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>55</v>
       </c>
@@ -8791,7 +8799,7 @@
         <v>45902</v>
       </c>
     </row>
-    <row r="73" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>58</v>
       </c>
@@ -8892,7 +8900,7 @@
         <v>45904</v>
       </c>
     </row>
-    <row r="74" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>90</v>
       </c>
@@ -8981,7 +8989,7 @@
         <v>45880</v>
       </c>
     </row>
-    <row r="75" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>689361</v>
       </c>
@@ -9046,7 +9054,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="76" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>90</v>
       </c>
@@ -9135,7 +9143,7 @@
         <v>45880</v>
       </c>
     </row>
-    <row r="77" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>689362</v>
       </c>
@@ -9200,7 +9208,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="78" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>1464448</v>
       </c>
@@ -9265,7 +9273,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="79" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>475399</v>
       </c>
@@ -9330,7 +9338,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="80" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>484362</v>
       </c>
@@ -9395,7 +9403,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="81" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>490806</v>
       </c>
@@ -9460,7 +9468,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="82" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>2126081</v>
       </c>
@@ -9525,7 +9533,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="83" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>2126082</v>
       </c>
@@ -9590,7 +9598,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="84" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>2126083</v>
       </c>
@@ -9655,7 +9663,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="85" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>2126084</v>
       </c>
@@ -9720,7 +9728,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="86" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>1486414</v>
       </c>
@@ -9785,7 +9793,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="87" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>536729</v>
       </c>
@@ -9850,7 +9858,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="88" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>551936</v>
       </c>
@@ -9915,7 +9923,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="89" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>33</v>
       </c>
@@ -10022,7 +10030,7 @@
         <v>45874</v>
       </c>
     </row>
-    <row r="90" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>33</v>
       </c>
@@ -10123,7 +10131,7 @@
         <v>45874</v>
       </c>
     </row>
-    <row r="91" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>40</v>
       </c>
@@ -10230,7 +10238,7 @@
         <v>45883</v>
       </c>
     </row>
-    <row r="92" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>40</v>
       </c>
@@ -10331,7 +10339,7 @@
         <v>45883</v>
       </c>
     </row>
-    <row r="93" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>40</v>
       </c>
@@ -10438,7 +10446,7 @@
         <v>45883</v>
       </c>
     </row>
-    <row r="94" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>43</v>
       </c>
@@ -10539,7 +10547,7 @@
         <v>45889</v>
       </c>
     </row>
-    <row r="95" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>43</v>
       </c>
@@ -10640,7 +10648,7 @@
         <v>45889</v>
       </c>
     </row>
-    <row r="96" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>43</v>
       </c>
@@ -10741,7 +10749,7 @@
         <v>45889</v>
       </c>
     </row>
-    <row r="97" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>48</v>
       </c>
@@ -10848,7 +10856,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="98" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>49</v>
       </c>
@@ -10949,7 +10957,7 @@
         <v>45896</v>
       </c>
     </row>
-    <row r="99" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>49</v>
       </c>
@@ -11050,7 +11058,7 @@
         <v>45896</v>
       </c>
     </row>
-    <row r="100" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>52</v>
       </c>
@@ -11151,7 +11159,7 @@
         <v>45898</v>
       </c>
     </row>
-    <row r="101" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>52</v>
       </c>
@@ -11252,7 +11260,7 @@
         <v>45898</v>
       </c>
     </row>
-    <row r="102" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>55</v>
       </c>
@@ -11353,7 +11361,7 @@
         <v>45903</v>
       </c>
     </row>
-    <row r="103" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>57</v>
       </c>
@@ -11454,7 +11462,7 @@
         <v>45904</v>
       </c>
     </row>
-    <row r="104" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>55</v>
       </c>
@@ -11555,7 +11563,7 @@
         <v>45903</v>
       </c>
     </row>
-    <row r="105" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>55</v>
       </c>
@@ -11644,7 +11652,7 @@
         <v>45903</v>
       </c>
     </row>
-    <row r="106" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>58</v>
       </c>
@@ -11745,7 +11753,7 @@
         <v>45905</v>
       </c>
     </row>
-    <row r="107" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>614320</v>
       </c>
@@ -11810,7 +11818,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="108" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>614320</v>
       </c>
@@ -11875,7 +11883,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="109" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>614320</v>
       </c>
@@ -11940,7 +11948,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="110" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>614320</v>
       </c>
@@ -12005,7 +12013,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="111" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>614320</v>
       </c>
@@ -12070,7 +12078,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="112" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>614320</v>
       </c>
@@ -12135,7 +12143,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="113" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>614320</v>
       </c>
@@ -12200,7 +12208,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="114" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>614320</v>
       </c>
@@ -12265,7 +12273,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="115" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>614320</v>
       </c>
@@ -12330,7 +12338,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="116" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>614320</v>
       </c>
@@ -12395,7 +12403,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="117" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>614320</v>
       </c>
@@ -12460,7 +12468,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="118" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>614320</v>
       </c>
@@ -12525,7 +12533,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="119" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>614320</v>
       </c>
@@ -12590,7 +12598,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="120" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>614320</v>
       </c>
@@ -12655,7 +12663,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="121" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>614320</v>
       </c>
@@ -12720,7 +12728,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="122" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>614320</v>
       </c>
@@ -12785,7 +12793,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="123" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>614320</v>
       </c>
@@ -12850,7 +12858,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="124" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>614320</v>
       </c>
@@ -12915,7 +12923,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="125" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>614320</v>
       </c>
@@ -12980,7 +12988,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="126" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>614320</v>
       </c>
@@ -13045,7 +13053,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="127" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>614320</v>
       </c>
@@ -13110,7 +13118,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="128" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>614320</v>
       </c>
@@ -13175,7 +13183,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="129" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>614320</v>
       </c>
@@ -13240,7 +13248,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="130" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>614320</v>
       </c>
@@ -13305,7 +13313,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="131" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>614320</v>
       </c>
@@ -13370,7 +13378,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="132" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>614320</v>
       </c>
@@ -13435,7 +13443,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="133" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B133">
         <v>614320</v>
       </c>
@@ -13500,7 +13508,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="134" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>614320</v>
       </c>
@@ -13565,7 +13573,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="135" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>58</v>
       </c>
@@ -13666,7 +13674,7 @@
         <v>45905</v>
       </c>
     </row>
-    <row r="136" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>58</v>
       </c>
@@ -13767,7 +13775,7 @@
         <v>45905</v>
       </c>
     </row>
-    <row r="137" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>58</v>
       </c>
@@ -13856,7 +13864,7 @@
         <v>45905</v>
       </c>
     </row>
-    <row r="138" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>58</v>
       </c>
@@ -13957,7 +13965,7 @@
         <v>45905</v>
       </c>
     </row>
-    <row r="139" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>58</v>
       </c>
@@ -14058,7 +14066,7 @@
         <v>45905</v>
       </c>
     </row>
-    <row r="140" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>1083738</v>
       </c>
@@ -14123,7 +14131,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="141" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>1083739</v>
       </c>
@@ -14188,7 +14196,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="142" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B142">
         <v>1083740</v>
       </c>
@@ -14253,7 +14261,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="143" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>371454</v>
       </c>
@@ -14318,7 +14326,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="144" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B144">
         <v>933548</v>
       </c>
@@ -14383,7 +14391,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="145" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>1025574</v>
       </c>
@@ -14448,7 +14456,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="146" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B146">
         <v>1025576</v>
       </c>
@@ -14513,7 +14521,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="147" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>384618</v>
       </c>
@@ -14578,7 +14586,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="148" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B148">
         <v>386584</v>
       </c>
@@ -14643,7 +14651,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="149" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B149">
         <v>776932</v>
       </c>
@@ -14708,7 +14716,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="150" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B150">
         <v>776954</v>
       </c>
@@ -14773,7 +14781,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="151" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>31</v>
       </c>
@@ -14874,7 +14882,7 @@
         <v>45876</v>
       </c>
     </row>
-    <row r="152" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>40</v>
       </c>
@@ -14975,7 +14983,7 @@
         <v>45883</v>
       </c>
     </row>
-    <row r="153" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>45</v>
       </c>
@@ -15076,7 +15084,7 @@
         <v>45890</v>
       </c>
     </row>
-    <row r="154" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>49</v>
       </c>
@@ -15177,7 +15185,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="155" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>49</v>
       </c>
@@ -15278,7 +15286,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="156" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>49</v>
       </c>
@@ -15379,7 +15387,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="157" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>51</v>
       </c>
@@ -15480,7 +15488,7 @@
         <v>45896</v>
       </c>
     </row>
-    <row r="158" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B158">
         <v>172656</v>
       </c>
@@ -15545,7 +15553,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="159" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B159">
         <v>1809877</v>
       </c>
@@ -15610,7 +15618,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="160" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B160">
         <v>339639</v>
       </c>
@@ -15675,7 +15683,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="161" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B161">
         <v>340305</v>
       </c>
@@ -15740,7 +15748,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="162" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B162">
         <v>340305</v>
       </c>
@@ -15805,7 +15813,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="163" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B163">
         <v>340305</v>
       </c>
@@ -15870,7 +15878,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="164" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B164">
         <v>340305</v>
       </c>
@@ -15935,7 +15943,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="165" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B165">
         <v>340305</v>
       </c>
@@ -16000,7 +16008,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="166" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B166">
         <v>340305</v>
       </c>
@@ -16065,7 +16073,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="167" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B167">
         <v>340305</v>
       </c>
@@ -16130,7 +16138,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="168" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B168">
         <v>340305</v>
       </c>
@@ -16195,7 +16203,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="169" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B169">
         <v>340305</v>
       </c>
@@ -16260,7 +16268,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="170" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B170">
         <v>340305</v>
       </c>
@@ -16325,7 +16333,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="171" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B171">
         <v>340305</v>
       </c>
@@ -16390,7 +16398,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="172" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B172">
         <v>340305</v>
       </c>
@@ -16455,7 +16463,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="173" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B173">
         <v>340305</v>
       </c>
@@ -16520,7 +16528,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="174" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B174">
         <v>340305</v>
       </c>
@@ -16585,7 +16593,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="175" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B175">
         <v>340305</v>
       </c>
@@ -16650,7 +16658,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="176" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B176">
         <v>340305</v>
       </c>
@@ -16715,7 +16723,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="177" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B177">
         <v>340305</v>
       </c>
@@ -16780,7 +16788,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="178" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B178">
         <v>340305</v>
       </c>
@@ -16845,7 +16853,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="179" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B179">
         <v>340305</v>
       </c>
@@ -16910,7 +16918,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="180" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B180">
         <v>340305</v>
       </c>
@@ -16975,7 +16983,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="181" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B181">
         <v>340305</v>
       </c>
@@ -17040,7 +17048,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="182" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B182">
         <v>340305</v>
       </c>
@@ -17105,7 +17113,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="183" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B183">
         <v>1139440</v>
       </c>
@@ -17170,7 +17178,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="184" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>43</v>
       </c>
@@ -17271,7 +17279,7 @@
         <v>45889</v>
       </c>
     </row>
-    <row r="185" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>43</v>
       </c>
@@ -17372,7 +17380,7 @@
         <v>45889</v>
       </c>
     </row>
-    <row r="186" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>45</v>
       </c>
@@ -17473,7 +17481,7 @@
         <v>45891</v>
       </c>
     </row>
-    <row r="187" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>46</v>
       </c>
@@ -17574,7 +17582,7 @@
         <v>45896</v>
       </c>
     </row>
-    <row r="188" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>25</v>
       </c>
@@ -17681,7 +17689,7 @@
         <v>45870</v>
       </c>
     </row>
-    <row r="189" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>36</v>
       </c>
@@ -17782,7 +17790,7 @@
         <v>45882</v>
       </c>
     </row>
-    <row r="190" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>37</v>
       </c>
@@ -17883,7 +17891,7 @@
         <v>45887</v>
       </c>
     </row>
-    <row r="191" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>34</v>
       </c>
@@ -17990,7 +17998,7 @@
         <v>45880</v>
       </c>
     </row>
-    <row r="192" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>40</v>
       </c>
@@ -18091,7 +18099,7 @@
         <v>45888</v>
       </c>
     </row>
-    <row r="193" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>39</v>
       </c>
@@ -18180,7 +18188,7 @@
         <v>45887</v>
       </c>
     </row>
-    <row r="194" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>39</v>
       </c>
@@ -18281,7 +18289,7 @@
         <v>45887</v>
       </c>
     </row>
-    <row r="195" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>55</v>
       </c>
@@ -18382,7 +18390,7 @@
         <v>45904</v>
       </c>
     </row>
-    <row r="196" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>55</v>
       </c>
@@ -18483,7 +18491,7 @@
         <v>45904</v>
       </c>
     </row>
-    <row r="197" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>51</v>
       </c>
@@ -18584,7 +18592,7 @@
         <v>45898</v>
       </c>
     </row>
-    <row r="198" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>51</v>
       </c>
@@ -18685,7 +18693,7 @@
         <v>45898</v>
       </c>
     </row>
-    <row r="199" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>51</v>
       </c>
@@ -18786,7 +18794,7 @@
         <v>45898</v>
       </c>
     </row>
-    <row r="200" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>54</v>
       </c>
@@ -18887,7 +18895,7 @@
         <v>45904</v>
       </c>
     </row>
-    <row r="201" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>52</v>
       </c>
@@ -18988,7 +18996,7 @@
         <v>45902</v>
       </c>
     </row>
-    <row r="202" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>51</v>
       </c>
@@ -19095,7 +19103,7 @@
         <v>45898</v>
       </c>
     </row>
-    <row r="203" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>51</v>
       </c>
@@ -19202,7 +19210,7 @@
         <v>45898</v>
       </c>
     </row>
-    <row r="204" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>51</v>
       </c>
@@ -19303,7 +19311,7 @@
         <v>45898</v>
       </c>
     </row>
-    <row r="205" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>51</v>
       </c>
@@ -19404,7 +19412,7 @@
         <v>45898</v>
       </c>
     </row>
-    <row r="206" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>52</v>
       </c>
@@ -19505,7 +19513,7 @@
         <v>45902</v>
       </c>
     </row>
-    <row r="207" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B207">
         <v>2010220</v>
       </c>
@@ -19570,7 +19578,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="208" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B208">
         <v>1446442</v>
       </c>
@@ -19635,7 +19643,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="209" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B209">
         <v>1446443</v>
       </c>
@@ -19700,7 +19708,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="210" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B210">
         <v>1446444</v>
       </c>
@@ -19765,7 +19773,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="211" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B211">
         <v>589587</v>
       </c>
@@ -19830,7 +19838,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="212" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B212">
         <v>1374831</v>
       </c>
@@ -19895,7 +19903,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="213" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>27</v>
       </c>
@@ -20002,7 +20010,7 @@
         <v>45870</v>
       </c>
     </row>
-    <row r="214" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>28</v>
       </c>
@@ -20115,7 +20123,7 @@
         <v>45870</v>
       </c>
     </row>
-    <row r="215" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>28</v>
       </c>
@@ -20216,7 +20224,7 @@
         <v>45870</v>
       </c>
     </row>
-    <row r="216" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>37</v>
       </c>
@@ -20305,7 +20313,7 @@
         <v>45881</v>
       </c>
     </row>
-    <row r="217" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>54</v>
       </c>
@@ -20430,7 +20438,7 @@
         <v>45903</v>
       </c>
     </row>
-    <row r="218" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B218">
         <v>1445556</v>
       </c>
@@ -20495,7 +20503,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="219" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B219">
         <v>1624668</v>
       </c>
@@ -20560,7 +20568,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="220" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>7</v>
       </c>
@@ -20661,7 +20669,7 @@
         <v>45904</v>
       </c>
     </row>
-    <row r="221" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>7</v>
       </c>
@@ -20750,7 +20758,7 @@
         <v>45904</v>
       </c>
     </row>
-    <row r="222" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>7</v>
       </c>
@@ -20848,7 +20856,7 @@
         <v>45904</v>
       </c>
     </row>
-    <row r="223" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>7</v>
       </c>
@@ -20937,7 +20945,7 @@
         <v>45904</v>
       </c>
     </row>
-    <row r="224" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B224">
         <v>2090294</v>
       </c>
@@ -21002,7 +21010,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="225" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B225">
         <v>2090295</v>
       </c>
@@ -21067,7 +21075,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="226" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B226">
         <v>2090296</v>
       </c>
@@ -21132,7 +21140,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="227" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B227">
         <v>2090297</v>
       </c>
@@ -21197,7 +21205,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="228" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B228">
         <v>2090298</v>
       </c>
@@ -21262,7 +21270,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="229" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B229">
         <v>2090299</v>
       </c>
@@ -21327,7 +21335,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="230" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B230">
         <v>2090300</v>
       </c>
@@ -21392,7 +21400,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="231" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B231">
         <v>2090301</v>
       </c>
@@ -21457,7 +21465,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="232" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B232">
         <v>2090302</v>
       </c>
@@ -21522,7 +21530,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="233" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B233">
         <v>2090303</v>
       </c>
@@ -21587,7 +21595,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="234" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B234">
         <v>2090304</v>
       </c>
@@ -21652,7 +21660,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="235" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B235">
         <v>2090305</v>
       </c>
@@ -21717,7 +21725,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="236" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B236">
         <v>2090306</v>
       </c>
@@ -21782,7 +21790,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="237" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B237">
         <v>2090307</v>
       </c>
@@ -21847,7 +21855,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="238" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B238">
         <v>2090308</v>
       </c>
@@ -21912,7 +21920,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="239" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B239">
         <v>2090309</v>
       </c>
@@ -21977,7 +21985,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="240" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B240">
         <v>2090310</v>
       </c>
@@ -22042,7 +22050,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="241" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B241">
         <v>2090311</v>
       </c>
@@ -22107,7 +22115,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="242" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B242">
         <v>2090312</v>
       </c>
@@ -22172,7 +22180,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="243" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B243">
         <v>2090313</v>
       </c>
@@ -22237,7 +22245,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="244" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B244">
         <v>2090314</v>
       </c>
@@ -22302,7 +22310,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="245" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B245">
         <v>2090315</v>
       </c>
@@ -22367,7 +22375,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="246" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B246">
         <v>2090316</v>
       </c>
@@ -22432,7 +22440,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="247" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B247">
         <v>2090317</v>
       </c>
@@ -22497,7 +22505,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="248" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B248">
         <v>2090318</v>
       </c>
@@ -22562,7 +22570,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="249" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B249">
         <v>2090319</v>
       </c>
@@ -22627,7 +22635,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="250" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B250">
         <v>2090320</v>
       </c>
@@ -22692,7 +22700,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="251" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B251">
         <v>2090321</v>
       </c>
@@ -22757,7 +22765,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="252" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B252">
         <v>2090322</v>
       </c>
@@ -22822,7 +22830,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="253" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B253">
         <v>2090323</v>
       </c>
@@ -22887,7 +22895,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="254" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B254">
         <v>2090324</v>
       </c>
@@ -22952,7 +22960,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="255" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B255">
         <v>2090325</v>
       </c>
@@ -23017,7 +23025,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="256" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B256">
         <v>2090326</v>
       </c>
@@ -23082,7 +23090,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="257" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B257">
         <v>2090327</v>
       </c>
@@ -23147,7 +23155,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="258" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B258">
         <v>2090328</v>
       </c>
@@ -23212,7 +23220,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="259" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B259">
         <v>2090329</v>
       </c>
@@ -23277,7 +23285,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="260" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B260">
         <v>2090330</v>
       </c>
@@ -23342,7 +23350,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="261" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B261">
         <v>2090331</v>
       </c>
@@ -23407,7 +23415,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="262" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B262">
         <v>2090332</v>
       </c>
@@ -23472,7 +23480,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="263" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B263">
         <v>2090333</v>
       </c>
@@ -23537,7 +23545,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="264" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B264">
         <v>2090334</v>
       </c>
@@ -23602,7 +23610,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="265" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B265">
         <v>2090335</v>
       </c>
@@ -23667,7 +23675,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="266" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B266">
         <v>2090336</v>
       </c>
@@ -23732,7 +23740,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="267" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B267">
         <v>2090337</v>
       </c>
@@ -23797,7 +23805,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="268" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B268">
         <v>2090338</v>
       </c>
@@ -23862,7 +23870,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="269" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B269">
         <v>2090339</v>
       </c>
@@ -23927,7 +23935,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="270" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B270">
         <v>2090340</v>
       </c>
@@ -23992,7 +24000,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="271" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B271">
         <v>2090341</v>
       </c>
@@ -24057,7 +24065,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="272" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B272">
         <v>2090342</v>
       </c>
@@ -24122,7 +24130,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="273" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B273">
         <v>2090343</v>
       </c>
@@ -24187,7 +24195,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="274" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B274">
         <v>2090344</v>
       </c>
@@ -24252,7 +24260,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="275" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B275">
         <v>2090345</v>
       </c>
@@ -24317,7 +24325,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="276" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B276">
         <v>2090346</v>
       </c>
@@ -24382,7 +24390,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="277" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B277">
         <v>2090347</v>
       </c>
@@ -24447,7 +24455,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="278" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B278">
         <v>2090348</v>
       </c>
@@ -24512,7 +24520,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="279" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B279">
         <v>2090349</v>
       </c>
@@ -24577,7 +24585,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="280" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B280">
         <v>2090350</v>
       </c>
@@ -24642,7 +24650,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="281" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B281">
         <v>2090351</v>
       </c>
@@ -24707,7 +24715,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="282" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B282">
         <v>2090352</v>
       </c>
@@ -24772,7 +24780,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="283" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B283">
         <v>2090353</v>
       </c>
@@ -24837,7 +24845,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="284" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B284">
         <v>1203655</v>
       </c>
@@ -24902,7 +24910,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="285" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>28</v>
       </c>
@@ -25003,7 +25011,7 @@
         <v>45870</v>
       </c>
     </row>
-    <row r="286" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>40</v>
       </c>
@@ -25128,7 +25136,7 @@
         <v>45883</v>
       </c>
     </row>
-    <row r="287" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>37</v>
       </c>
@@ -25217,7 +25225,7 @@
         <v>45877</v>
       </c>
     </row>
-    <row r="288" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B288">
         <v>2081869</v>
       </c>
@@ -25282,7 +25290,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="289" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B289">
         <v>2081869</v>
       </c>
@@ -25347,7 +25355,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="290" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B290">
         <v>2081869</v>
       </c>
@@ -25412,7 +25420,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="291" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B291">
         <v>2081869</v>
       </c>
@@ -25477,7 +25485,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="292" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B292">
         <v>2081869</v>
       </c>
@@ -25542,7 +25550,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="293" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B293">
         <v>2081869</v>
       </c>
@@ -25607,7 +25615,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="294" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B294">
         <v>2081869</v>
       </c>
@@ -25672,7 +25680,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="295" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B295">
         <v>2081869</v>
       </c>
@@ -25737,7 +25745,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="296" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B296">
         <v>2081869</v>
       </c>
@@ -25802,7 +25810,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="297" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B297">
         <v>2081869</v>
       </c>
@@ -25867,7 +25875,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="298" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B298">
         <v>2081869</v>
       </c>
@@ -25932,7 +25940,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="299" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B299">
         <v>2081869</v>
       </c>
@@ -25997,7 +26005,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="300" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B300">
         <v>2081869</v>
       </c>
@@ -26062,7 +26070,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="301" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B301">
         <v>2081869</v>
       </c>
@@ -26127,7 +26135,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="302" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B302">
         <v>2081869</v>
       </c>
@@ -26192,7 +26200,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="303" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B303">
         <v>2081869</v>
       </c>
@@ -26257,7 +26265,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="304" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B304">
         <v>2081869</v>
       </c>
@@ -26322,7 +26330,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="305" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B305">
         <v>2081869</v>
       </c>
@@ -26387,7 +26395,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="306" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B306">
         <v>2081869</v>
       </c>
@@ -26452,7 +26460,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="307" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B307">
         <v>2081869</v>
       </c>
@@ -26517,7 +26525,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="308" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B308">
         <v>2081869</v>
       </c>
@@ -26582,7 +26590,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="309" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B309">
         <v>2081869</v>
       </c>
@@ -26647,7 +26655,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="310" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B310">
         <v>2081869</v>
       </c>
@@ -26712,7 +26720,7 @@
         <v>45904</v>
       </c>
     </row>
-    <row r="311" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>43</v>
       </c>
@@ -26813,7 +26821,7 @@
         <v>45888</v>
       </c>
     </row>
-    <row r="312" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>43</v>
       </c>
@@ -26914,7 +26922,7 @@
         <v>45888</v>
       </c>
     </row>
-    <row r="313" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B313">
         <v>8301360</v>
       </c>
@@ -26979,7 +26987,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="314" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B314">
         <v>8301360</v>
       </c>
@@ -27044,7 +27052,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="315" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B315">
         <v>8301360</v>
       </c>
@@ -27109,7 +27117,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="316" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B316">
         <v>8301360</v>
       </c>
@@ -27174,7 +27182,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="317" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B317">
         <v>8301360</v>
       </c>
@@ -27239,7 +27247,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="318" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B318">
         <v>8301360</v>
       </c>
@@ -27304,7 +27312,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="319" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B319">
         <v>8301360</v>
       </c>
@@ -27369,7 +27377,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="320" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B320">
         <v>8301360</v>
       </c>
@@ -27434,7 +27442,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="321" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B321">
         <v>8301360</v>
       </c>
@@ -27499,7 +27507,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="322" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>34</v>
       </c>
@@ -27600,7 +27608,7 @@
         <v>45875</v>
       </c>
     </row>
-    <row r="323" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>51</v>
       </c>
@@ -27701,7 +27709,7 @@
         <v>45896</v>
       </c>
     </row>
-    <row r="324" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>45</v>
       </c>
@@ -27802,7 +27810,7 @@
         <v>45890</v>
       </c>
     </row>
-    <row r="325" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>45</v>
       </c>
@@ -27903,7 +27911,7 @@
         <v>45890</v>
       </c>
     </row>
-    <row r="326" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>58</v>
       </c>
@@ -28004,7 +28012,7 @@
         <v>45904</v>
       </c>
     </row>
-    <row r="327" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>58</v>
       </c>
@@ -28105,7 +28113,7 @@
         <v>45904</v>
       </c>
     </row>
-    <row r="328" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B328">
         <v>1412310</v>
       </c>
@@ -28170,7 +28178,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="329" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B329">
         <v>1412310</v>
       </c>
@@ -28235,7 +28243,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="330" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B330">
         <v>1412310</v>
       </c>
@@ -28300,7 +28308,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="331" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B331">
         <v>1412310</v>
       </c>
@@ -28365,7 +28373,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="332" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B332">
         <v>1412310</v>
       </c>
@@ -28430,7 +28438,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="333" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B333">
         <v>1412310</v>
       </c>
@@ -28495,7 +28503,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="334" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B334">
         <v>1412310</v>
       </c>
@@ -28560,7 +28568,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="335" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B335">
         <v>1412310</v>
       </c>
@@ -28625,7 +28633,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="336" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B336">
         <v>1412310</v>
       </c>
@@ -28690,7 +28698,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="337" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B337">
         <v>1412310</v>
       </c>
@@ -28755,7 +28763,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="338" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B338">
         <v>1412310</v>
       </c>
@@ -28820,7 +28828,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="339" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B339">
         <v>1412310</v>
       </c>
@@ -28885,7 +28893,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="340" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B340">
         <v>1412310</v>
       </c>
@@ -28950,7 +28958,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="341" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B341">
         <v>1412310</v>
       </c>
@@ -29015,7 +29023,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="342" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B342">
         <v>1412310</v>
       </c>
@@ -29080,7 +29088,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="343" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B343">
         <v>1412310</v>
       </c>
@@ -29145,7 +29153,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="344" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B344">
         <v>1412310</v>
       </c>
@@ -29210,7 +29218,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="345" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B345">
         <v>1412310</v>
       </c>
@@ -29275,7 +29283,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="346" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B346">
         <v>1412310</v>
       </c>
@@ -29340,7 +29348,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="347" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B347">
         <v>1412310</v>
       </c>
@@ -29405,7 +29413,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="348" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B348">
         <v>1412310</v>
       </c>
@@ -29470,7 +29478,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="349" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B349">
         <v>166008</v>
       </c>
@@ -29535,7 +29543,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="350" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>46</v>
       </c>
@@ -29636,7 +29644,7 @@
         <v>45891</v>
       </c>
     </row>
-    <row r="351" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>46</v>
       </c>
@@ -29737,7 +29745,7 @@
         <v>45891</v>
       </c>
     </row>
-    <row r="352" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>58</v>
       </c>
@@ -29838,7 +29846,7 @@
         <v>45904</v>
       </c>
     </row>
-    <row r="353" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>58</v>
       </c>
@@ -29927,7 +29935,7 @@
         <v>45904</v>
       </c>
     </row>
-    <row r="354" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>40</v>
       </c>
@@ -30028,7 +30036,7 @@
         <v>45887</v>
       </c>
     </row>
-    <row r="355" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>40</v>
       </c>
@@ -30129,7 +30137,7 @@
         <v>45887</v>
       </c>
     </row>
-    <row r="356" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>40</v>
       </c>
@@ -30230,7 +30238,7 @@
         <v>45887</v>
       </c>
     </row>
-    <row r="357" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>42</v>
       </c>
@@ -30331,7 +30339,7 @@
         <v>45889</v>
       </c>
     </row>
-    <row r="358" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>39</v>
       </c>
@@ -30432,7 +30440,7 @@
         <v>45883</v>
       </c>
     </row>
-    <row r="359" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>33</v>
       </c>
@@ -30533,7 +30541,7 @@
         <v>45875</v>
       </c>
     </row>
-    <row r="360" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>36</v>
       </c>
@@ -30640,7 +30648,7 @@
         <v>45880</v>
       </c>
     </row>
-    <row r="361" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>36</v>
       </c>
@@ -30741,7 +30749,7 @@
         <v>45880</v>
       </c>
     </row>
-    <row r="362" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>36</v>
       </c>
@@ -30848,7 +30856,7 @@
         <v>45880</v>
       </c>
     </row>
-    <row r="363" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>36</v>
       </c>
@@ -30949,7 +30957,7 @@
         <v>45880</v>
       </c>
     </row>
-    <row r="364" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>33</v>
       </c>
@@ -31050,7 +31058,7 @@
         <v>45875</v>
       </c>
     </row>
-    <row r="365" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>28</v>
       </c>
@@ -31151,7 +31159,7 @@
         <v>45873</v>
       </c>
     </row>
-    <row r="366" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B366">
         <v>759986</v>
       </c>
@@ -31216,7 +31224,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="367" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B367">
         <v>2048770</v>
       </c>
@@ -31281,7 +31289,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="368" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B368">
         <v>2156838</v>
       </c>
@@ -31346,7 +31354,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="369" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B369">
         <v>29312</v>
       </c>
@@ -31411,7 +31419,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="370" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B370">
         <v>1425982</v>
       </c>
@@ -31476,7 +31484,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="371" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>25</v>
       </c>
@@ -31577,7 +31585,7 @@
         <v>45870</v>
       </c>
     </row>
-    <row r="372" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>25</v>
       </c>
@@ -31684,7 +31692,7 @@
         <v>45870</v>
       </c>
     </row>
-    <row r="373" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>25</v>
       </c>
@@ -31785,7 +31793,7 @@
         <v>45870</v>
       </c>
     </row>
-    <row r="374" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>33</v>
       </c>
@@ -31886,7 +31894,7 @@
         <v>45876</v>
       </c>
     </row>
-    <row r="375" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>33</v>
       </c>
@@ -32005,7 +32013,7 @@
         <v>45876</v>
       </c>
     </row>
-    <row r="376" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>34</v>
       </c>
@@ -32112,7 +32120,7 @@
         <v>45877</v>
       </c>
     </row>
-    <row r="377" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>37</v>
       </c>
@@ -32213,7 +32221,7 @@
         <v>45881</v>
       </c>
     </row>
-    <row r="378" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>46</v>
       </c>
@@ -32314,7 +32322,7 @@
         <v>45891</v>
       </c>
     </row>
-    <row r="379" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>42</v>
       </c>
@@ -32415,7 +32423,7 @@
         <v>45887</v>
       </c>
     </row>
-    <row r="380" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B380">
         <v>105511</v>
       </c>
@@ -32480,7 +32488,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="381" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B381">
         <v>105511</v>
       </c>
@@ -32545,7 +32553,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="382" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>58</v>
       </c>
@@ -32646,7 +32654,7 @@
         <v>45905</v>
       </c>
     </row>
-    <row r="383" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>54</v>
       </c>
@@ -32735,7 +32743,7 @@
         <v>45898</v>
       </c>
     </row>
-    <row r="384" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>54</v>
       </c>
@@ -32836,7 +32844,7 @@
         <v>45898</v>
       </c>
     </row>
-    <row r="385" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B385">
         <v>1788617</v>
       </c>
@@ -32901,7 +32909,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="386" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B386">
         <v>1788617</v>
       </c>
@@ -33031,7 +33039,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="388" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B388">
         <v>154840</v>
       </c>
@@ -33096,7 +33104,7 @@
         <v>40002</v>
       </c>
     </row>
-    <row r="389" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>18</v>
       </c>
@@ -33185,7 +33193,7 @@
         <v>40009</v>
       </c>
     </row>
-    <row r="390" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>18</v>
       </c>
@@ -33274,7 +33282,7 @@
         <v>40108</v>
       </c>
     </row>
-    <row r="391" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>18</v>
       </c>
@@ -33363,7 +33371,7 @@
         <v>40206</v>
       </c>
     </row>
-    <row r="392" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>18</v>
       </c>
@@ -33452,7 +33460,7 @@
         <v>40298</v>
       </c>
     </row>
-    <row r="393" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>18</v>
       </c>
@@ -33541,7 +33549,7 @@
         <v>40389</v>
       </c>
     </row>
-    <row r="394" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>18</v>
       </c>
@@ -33630,7 +33638,7 @@
         <v>40492</v>
       </c>
     </row>
-    <row r="395" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>18</v>
       </c>
@@ -33719,7 +33727,7 @@
         <v>40577</v>
       </c>
     </row>
-    <row r="396" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>18</v>
       </c>
@@ -33808,7 +33816,7 @@
         <v>40667</v>
       </c>
     </row>
-    <row r="397" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>18</v>
       </c>
@@ -33897,7 +33905,7 @@
         <v>40847</v>
       </c>
     </row>
-    <row r="398" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>18</v>
       </c>
@@ -33986,7 +33994,7 @@
         <v>40938</v>
       </c>
     </row>
-    <row r="399" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>18</v>
       </c>
@@ -34075,7 +34083,7 @@
         <v>41029</v>
       </c>
     </row>
-    <row r="400" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>18</v>
       </c>
@@ -34164,7 +34172,7 @@
         <v>41117</v>
       </c>
     </row>
-    <row r="401" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>18</v>
       </c>
@@ -34253,7 +34261,7 @@
         <v>41221</v>
       </c>
     </row>
-    <row r="402" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>18</v>
       </c>
@@ -34342,7 +34350,7 @@
         <v>41313</v>
       </c>
     </row>
-    <row r="403" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>18</v>
       </c>
@@ -34431,7 +34439,7 @@
         <v>41408</v>
       </c>
     </row>
-    <row r="404" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>18</v>
       </c>
@@ -34520,7 +34528,7 @@
         <v>41494</v>
       </c>
     </row>
-    <row r="405" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>12</v>
       </c>
@@ -34609,7 +34617,7 @@
         <v>41585</v>
       </c>
     </row>
-    <row r="406" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>12</v>
       </c>
@@ -34698,7 +34706,7 @@
         <v>41683</v>
       </c>
     </row>
-    <row r="407" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>12</v>
       </c>
@@ -34787,7 +34795,7 @@
         <v>41767</v>
       </c>
     </row>
-    <row r="408" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>12</v>
       </c>
@@ -34876,7 +34884,7 @@
         <v>41849</v>
       </c>
     </row>
-    <row r="409" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>12</v>
       </c>
@@ -34965,7 +34973,7 @@
         <v>41943</v>
       </c>
     </row>
-    <row r="410" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>12</v>
       </c>
@@ -35054,7 +35062,7 @@
         <v>42046</v>
       </c>
     </row>
-    <row r="411" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>9</v>
       </c>
@@ -35143,7 +35151,7 @@
         <v>42143</v>
       </c>
     </row>
-    <row r="412" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>9</v>
       </c>
@@ -35232,7 +35240,7 @@
         <v>42222</v>
       </c>
     </row>
-    <row r="413" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>9</v>
       </c>
@@ -35321,7 +35329,7 @@
         <v>42311</v>
       </c>
     </row>
-    <row r="414" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>9</v>
       </c>
@@ -35410,7 +35418,7 @@
         <v>42396</v>
       </c>
     </row>
-    <row r="415" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>9</v>
       </c>
@@ -35499,7 +35507,7 @@
         <v>42482</v>
       </c>
     </row>
-    <row r="416" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>9</v>
       </c>
@@ -35588,7 +35596,7 @@
         <v>42572</v>
       </c>
     </row>
-    <row r="417" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>9</v>
       </c>
@@ -35677,7 +35685,7 @@
         <v>42660</v>
       </c>
     </row>
-    <row r="418" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>9</v>
       </c>
@@ -35766,7 +35774,7 @@
         <v>42751</v>
       </c>
     </row>
-    <row r="419" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>9</v>
       </c>
@@ -35855,7 +35863,7 @@
         <v>42838</v>
       </c>
     </row>
-    <row r="420" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>9</v>
       </c>
@@ -35944,7 +35952,7 @@
         <v>42937</v>
       </c>
     </row>
-    <row r="421" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>9</v>
       </c>
@@ -36033,7 +36041,7 @@
         <v>43028</v>
       </c>
     </row>
-    <row r="422" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>9</v>
       </c>
@@ -36122,7 +36130,7 @@
         <v>43115</v>
       </c>
     </row>
-    <row r="423" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>9</v>
       </c>
@@ -36211,7 +36219,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="424" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>9</v>
       </c>
@@ -36300,7 +36308,7 @@
         <v>43294</v>
       </c>
     </row>
-    <row r="425" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>9</v>
       </c>
@@ -36389,7 +36397,7 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="426" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>9</v>
       </c>
@@ -36478,7 +36486,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="427" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>9</v>
       </c>
@@ -36567,7 +36575,7 @@
         <v>43566</v>
       </c>
     </row>
-    <row r="428" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>9</v>
       </c>
@@ -36656,7 +36664,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="429" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>9</v>
       </c>
@@ -36745,7 +36753,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="430" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>9</v>
       </c>
@@ -36834,7 +36842,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="431" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>9</v>
       </c>
@@ -36923,7 +36931,7 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="432" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>9</v>
       </c>
@@ -37012,7 +37020,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="433" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>9</v>
       </c>
@@ -37101,7 +37109,7 @@
         <v>44147</v>
       </c>
     </row>
-    <row r="434" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>9</v>
       </c>
@@ -37190,7 +37198,7 @@
         <v>44217</v>
       </c>
     </row>
-    <row r="435" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>9</v>
       </c>
@@ -37279,7 +37287,7 @@
         <v>44298</v>
       </c>
     </row>
-    <row r="436" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>9</v>
       </c>
@@ -37368,7 +37376,7 @@
         <v>44397</v>
       </c>
     </row>
-    <row r="437" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>9</v>
       </c>
@@ -37457,7 +37465,7 @@
         <v>44529</v>
       </c>
     </row>
-    <row r="438" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>9</v>
       </c>
@@ -37546,7 +37554,7 @@
         <v>44588</v>
       </c>
     </row>
-    <row r="439" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>10</v>
       </c>
@@ -37635,7 +37643,7 @@
         <v>44666</v>
       </c>
     </row>
-    <row r="440" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>10</v>
       </c>
@@ -37724,7 +37732,7 @@
         <v>44756</v>
       </c>
     </row>
-    <row r="441" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>10</v>
       </c>
@@ -37813,7 +37821,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="442" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>10</v>
       </c>
@@ -37902,7 +37910,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="443" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>10</v>
       </c>
@@ -37991,7 +37999,7 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="444" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>10</v>
       </c>
@@ -38080,7 +38088,7 @@
         <v>45119</v>
       </c>
     </row>
-    <row r="445" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>10</v>
       </c>
@@ -38169,7 +38177,7 @@
         <v>45212</v>
       </c>
     </row>
-    <row r="446" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>10</v>
       </c>
@@ -38258,7 +38266,7 @@
         <v>45308</v>
       </c>
     </row>
-    <row r="447" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>10</v>
       </c>
@@ -38347,7 +38355,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="448" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>10</v>
       </c>
@@ -38436,7 +38444,7 @@
         <v>45488</v>
       </c>
     </row>
-    <row r="449" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>10</v>
       </c>
@@ -38525,7 +38533,7 @@
         <v>45580</v>
       </c>
     </row>
-    <row r="450" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>10</v>
       </c>
@@ -38614,7 +38622,7 @@
         <v>45674</v>
       </c>
     </row>
-    <row r="451" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B451">
         <v>154840</v>
       </c>
@@ -38733,7 +38741,7 @@
         <v>45715</v>
       </c>
     </row>
-    <row r="452" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>84</v>
       </c>
@@ -38822,7 +38830,7 @@
         <v>45747</v>
       </c>
     </row>
-    <row r="453" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>84</v>
       </c>
@@ -38911,7 +38919,7 @@
         <v>45839</v>
       </c>
     </row>
-    <row r="454" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>55</v>
       </c>
@@ -39018,7 +39026,7 @@
         <v>45902</v>
       </c>
     </row>
-    <row r="455" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>55</v>
       </c>
@@ -39119,7 +39127,7 @@
         <v>45902</v>
       </c>
     </row>
-    <row r="456" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>57</v>
       </c>
@@ -39220,7 +39228,7 @@
         <v>45903</v>
       </c>
     </row>
-    <row r="457" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>55</v>
       </c>
@@ -39309,7 +39317,7 @@
         <v>45902</v>
       </c>
     </row>
-    <row r="458" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>52</v>
       </c>
@@ -39410,7 +39418,7 @@
         <v>45901</v>
       </c>
     </row>
-    <row r="459" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>49</v>
       </c>
@@ -39511,7 +39519,7 @@
         <v>45896</v>
       </c>
     </row>
-    <row r="460" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>45</v>
       </c>
@@ -39612,7 +39620,7 @@
         <v>45891</v>
       </c>
     </row>
-    <row r="461" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>45</v>
       </c>
@@ -39719,7 +39727,7 @@
         <v>45891</v>
       </c>
     </row>
-    <row r="462" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>45</v>
       </c>
@@ -39820,7 +39828,7 @@
         <v>45891</v>
       </c>
     </row>
-    <row r="463" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>45</v>
       </c>
@@ -39921,7 +39929,7 @@
         <v>45891</v>
       </c>
     </row>
-    <row r="464" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>45</v>
       </c>
@@ -40022,7 +40030,7 @@
         <v>45891</v>
       </c>
     </row>
-    <row r="465" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>45</v>
       </c>
@@ -40123,7 +40131,7 @@
         <v>45891</v>
       </c>
     </row>
-    <row r="466" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>45</v>
       </c>
@@ -40224,7 +40232,7 @@
         <v>45891</v>
       </c>
     </row>
-    <row r="467" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>45</v>
       </c>
@@ -40325,7 +40333,7 @@
         <v>45891</v>
       </c>
     </row>
-    <row r="468" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>45</v>
       </c>
@@ -40426,7 +40434,7 @@
         <v>45891</v>
       </c>
     </row>
-    <row r="469" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>45</v>
       </c>
@@ -40527,7 +40535,7 @@
         <v>45891</v>
       </c>
     </row>
-    <row r="470" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>45</v>
       </c>
@@ -40628,7 +40636,7 @@
         <v>45891</v>
       </c>
     </row>
-    <row r="471" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>45</v>
       </c>
@@ -40729,7 +40737,7 @@
         <v>45891</v>
       </c>
     </row>
-    <row r="472" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>43</v>
       </c>
@@ -40830,7 +40838,7 @@
         <v>45889</v>
       </c>
     </row>
-    <row r="473" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B473">
         <v>1816487</v>
       </c>
@@ -40895,7 +40903,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="474" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B474">
         <v>982382</v>
       </c>
@@ -40960,7 +40968,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="475" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B475">
         <v>995186</v>
       </c>
@@ -41025,7 +41033,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="476" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B476">
         <v>1573889</v>
       </c>
@@ -41090,7 +41098,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="477" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B477">
         <v>1544539</v>
       </c>
@@ -41155,7 +41163,7 @@
         <v>45895</v>
       </c>
     </row>
-    <row r="478" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>43</v>
       </c>
@@ -41256,7 +41264,7 @@
         <v>45890</v>
       </c>
     </row>
-    <row r="479" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>51</v>
       </c>
@@ -41363,7 +41371,7 @@
         <v>45901</v>
       </c>
     </row>
-    <row r="480" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>27</v>
       </c>
@@ -41485,7 +41493,7 @@
         <v>45874</v>
       </c>
     </row>
-    <row r="481" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B481">
         <v>1823289</v>
       </c>
@@ -41553,8 +41561,23 @@
     <row r="485" spans="2:43" x14ac:dyDescent="0.25">
       <c r="AO485" s="12"/>
     </row>
+    <row r="489" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="AI489" s="10"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AQ481" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AQ481" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="8">
+      <customFilters>
+        <customFilter operator="notEqual" val="*eurobank*"/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters>
+        <filter val="SOUTHROCK PROPERTY COMPANY ONE A.E."/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/input/eurobank/202509.xlsx
+++ b/data/input/eurobank/202509.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cervedgroup-my.sharepoint.com/personal/alexis_milionis_cerved_com/Documents/codebase/Utilities/streamlit/data/input/eurobank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="11_F235BD1891344565E00B8F3D5E94DAA62ED55A21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B7FA506-8F09-4DE2-B345-2ADB3D82106F}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="11_F235BD1891344565E00B8F3D5E94DAA62ED55A21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1D254AA-4C82-4328-8E87-4D6B6762E42B}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1125" yWindow="1125" windowWidth="17280" windowHeight="8925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -3357,9 +3357,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AQ489"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A387" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J488" sqref="J488"/>
+      <selection pane="bottomLeft" activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41567,9 +41567,64 @@
   </sheetData>
   <autoFilter ref="A1:AQ481" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="8">
-      <customFilters>
-        <customFilter operator="notEqual" val="*eurobank*"/>
-      </customFilters>
+      <filters>
+        <filter val="SOUTHROCK PROPERTY COMPANY ONE A.E."/>
+        <filter val="ΑΓΓΕΛΟΠΟΥΛΟΣ ΠΑΥΛΟΣ"/>
+        <filter val="ΑΚΑΔΗΜΙΑ ΑΘΗΝΩΝ ΕΓΓΟΝΟΠΟΥΛΟΣ Κ00"/>
+        <filter val="ΑΝΑΓΝΩΣΤΟΠΟΥΛΟΣ ΑΘΑΝ, ΝΙΚ ΚΛΠ"/>
+        <filter val="ΑΠΟΣΤΟΛΟΥ ΝΕΣΤΩΡ ΚΛΠ ΣΥΝΙΔ"/>
+        <filter val="ΑΥΣΤΡΙΑΚΕΣ ΑΕΡΟΠΟΡΙΚΕΣ ΓΡΑΜΜΕΣ00"/>
+        <filter val="ΑΦΟΙ ΚΑΡΑΤΖΑ Α.Ε."/>
+        <filter val="ΒΑΣΙΛΟΠΟΥΛΟΣ ΙΩΑΝΝΗΣ"/>
+        <filter val="ΒΕΝΕΤΣΑΝΟΣ ΠΕΤΡΟΣ"/>
+        <filter val="ΒΛΑΧΟΥΛΗ-ΚΑΡΕΛΑ ΧΡΙΣΤΙΝΑ"/>
+        <filter val="ΒΟΡΡΕΑΣ ΠΑΝΤΕΛΗΣ"/>
+        <filter val="ΒΟΥΛΓΟΥΡΙΔΗ ΠΑΡΑΣΚΕΥΗ"/>
+        <filter val="Γ  ΝΟΙΚΟΚΥΡΑΚΗ ΚΑΙ ΣΙΑ ΟΕ"/>
+        <filter val="ΓΑΒΑΛΑΚΗ ΕΥΓΕΝΙΑ ΚΛΠ ΣΥΝΙΔΙΟΚΤ."/>
+        <filter val="ΓΕΩΡΓΑΚΗΣ ΔΗΜΟΣΘ &amp; ΛΟΙΠΟΙ ΣΥΝΙΔ"/>
+        <filter val="ΓΚΑΤΖΩΝΗΣ ΑΝΤΩΝΗΣ ΚΛΠ ΣΥΝΙΔ"/>
+        <filter val="ΔΑΒΒΕΤΑ ΓΕΩΡΓΙΑ ΚΛΠ"/>
+        <filter val="ΔΗΜΙΟΥΡΓΙΑ ΑΝ ΚΤΗΜ ΤΕΧΝ ΕΤΑΙ  00"/>
+        <filter val="Ε. ΣΠΑΘΑΡΙΩΤΗ ΑΕ"/>
+        <filter val="ΕΘΝΙΚΟΝ ΙΔΡΥΜΑ ΕΡΕΥΝΩΝ        00"/>
+        <filter val="ΕΛΥΡΟΣ Α.Ε."/>
+        <filter val="ΙΔΡΥΜΑ ΕΥΓΕΝΙΔΟΥ              00"/>
+        <filter val="ΙΩΣΗΦ ΓΟΥΜΕΝΑΚΗΣ &amp; ΣΙΑ Ε.Ε."/>
+        <filter val="ΚΑΛΥΨΩ ΑΕΒΕ                   00"/>
+        <filter val="ΚΑΡΝΑΧΩΡΙΤΗ ΑΝΝΑ"/>
+        <filter val="ΚΟΝΣΟΥΛΑΣ ΙΩΑΝΝΗΣ             00"/>
+        <filter val="ΚΟΝΣΟΥΛΑΣ ΠΑΝΑΓΙΩΤΗΣ Ε.Π.Ε"/>
+        <filter val="ΚΟΥΤΣΟΓΙΑΝΝΗΣ ΔΙΟΝΥΣΙΟΣ ΤΟΥ ΛΕΩΝ"/>
+        <filter val="ΚΥΡΙΑΚΙΔΗΣ ΣΩΤΗΡΙΟΣ &amp; ΛΟΙΠΟΙ ΣΥΝ"/>
+        <filter val="ΛΙΒΑ ΓΕΩΡΓΟΥΝΤΖΟΥ ΑΙΚΑΤΕΡΙΝΗ"/>
+        <filter val="ΛΟΓΟΘΕΤΗΣ ΗΡΑΚΛΗΣ &amp; ΛΟΙΠΟΙ ΣΥΝΙΔ"/>
+        <filter val="ΛΟΓΟΘΕΤΗΣ ΝΙΚ ΗΡΑΚΛ ΜΕΣΣΗΝΗΣ Θ Α"/>
+        <filter val="ΛΟΥΠΑΣΑΚΗΣ-ΛΟΥΠΑΣΗΣ ΠΑΝΑΓΙΩΤΗΣ"/>
+        <filter val="ΜΑΝΤΖΑΡΗΣ ΔΗΜΗΤΡΙΟΣ"/>
+        <filter val="ΜΑΝΤΖΟΥΡΙΔΗΣ ΣΩΤΗΡΙΟΣ"/>
+        <filter val="ΜΕΤΟΧ ΤΑΜΕΙΟ ΠΟΛΙΤΙΚΩΝ ΥΠΑΛΛΗΛΩΝ"/>
+        <filter val="ΜΠΑΡΑΜΠΟΥΤΗΣ ΚΩΝΣΤΑΝΤΙΝΟΣ"/>
+        <filter val="ΜΠΟΤΣΑΡΗ ΠΗΝΕΛΟΠΗ ΕΛΕΝΗ"/>
+        <filter val="ΜΥΛΩΝΑΣ ΙΩΑΝΝΗΣ &amp; ΛΟΙΠΟΙ ΣΥΝΙΔ"/>
+        <filter val="ΝΕΟΦΩΤΙΣΤΟΣ ΔΗΜ. &amp; ΠΑΝΩΡΑΙΑ"/>
+        <filter val="ΞΥΔΙΑΣ ΔΗΜΗΤΡΙΟΣ &amp; ΛΟΙΠΟΙ ΣΥΝ"/>
+        <filter val="ΟΥΡΑΝΗ ΕΛΕΝΗ                  00"/>
+        <filter val="ΠΡΩΤΟΓΕΡΟΣ ΘΩΜΑΣ"/>
+        <filter val="ΡΟΥΣΣΟΥ ΑΝ &amp; ΠΑΠΑΘΑΝΑΣΙΟΥ ΜΑΡΙΑ"/>
+        <filter val="ΣΑΣΣΑΛΟΥ ΣΟΦΙΑ"/>
+        <filter val="ΣΑΣΣΑΛΟΥ ΣΟΦΙΑ &amp; ΛΟΙΠΟΙ ΣΥΝΙΔ"/>
+        <filter val="ΣΕΚΟΠΟΥΛΟΥ ΙΩΣΗΦΙΝΑ"/>
+        <filter val="ΣΙΔΕΡΗΣ ΔΗΜΗΤΡΙΟΣ &amp; ΣΙΑ ΑΕ"/>
+        <filter val="ΣΚΑΦΙΔΑΚΗΣ ΝΙΚ &amp; ΛΟΙΠΟΙ ΣΥΝΙΔ"/>
+        <filter val="ΣΠΑΘΑΚΗΣ-ΝΙΩΡΑΣ- ΓΙΑΤΡΑ ΟΕ"/>
+        <filter val="ΣΤΕΦΑΝΟΥ ΓΕΩΡΓ"/>
+        <filter val="ΤΡΟΥΠΑΚΗΣ ΘΕΟΦΑΝΗΣ"/>
+        <filter val="ΤΣΑΚΙΡΗ ΧΡΙΣΤΙΝΑ"/>
+        <filter val="ΤΣΑΜΠΑΡΛΙΔΗΣ ΓΕΩΡΓΙΟΣ ΚΛΠ"/>
+        <filter val="ΤΣΙΓΚΟΣ ΔΗΜΗΤΡΗΣ &amp; ΙΣΙΔΩΡΟΣ"/>
+        <filter val="ΤΣΟΥΜΑΣ ΠΕΤΡΟΣ ΚΛΠ ΣΥΝΙΔ"/>
+      </filters>
     </filterColumn>
     <filterColumn colId="9">
       <filters>
